--- a/data/trans_orig/P02E$contratada-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P02E$contratada-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>2882</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7944</v>
+        <v>7208</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02544456256181167</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007216166722650349</v>
+        <v>0.007197186192430356</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0701290238628572</v>
+        <v>0.06363262211971858</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -764,19 +764,19 @@
         <v>7346</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2797</v>
+        <v>2828</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15386</v>
+        <v>16825</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02709526547483329</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01031500774679379</v>
+        <v>0.01043168920225533</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05674724638646782</v>
+        <v>0.06205659745828462</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -785,19 +785,19 @@
         <v>10229</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5278</v>
+        <v>4469</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19608</v>
+        <v>19136</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02660882798535032</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0137308686111475</v>
+        <v>0.01162449701495551</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05100718745542094</v>
+        <v>0.0497794165919584</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>103158</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>96223</v>
+        <v>96047</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>108012</v>
+        <v>107612</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9106440684301624</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8494219183903118</v>
+        <v>0.8478683801482068</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.953498964401316</v>
+        <v>0.9499627205832564</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>240</v>
@@ -835,19 +835,19 @@
         <v>243421</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>231889</v>
+        <v>231284</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>253367</v>
+        <v>252156</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8977983264115894</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8552654809138081</v>
+        <v>0.8530351984799154</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9344806512398589</v>
+        <v>0.9300168644396005</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>338</v>
@@ -856,19 +856,19 @@
         <v>346580</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>332765</v>
+        <v>334052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>357012</v>
+        <v>357752</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9015837746886645</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8656480519770344</v>
+        <v>0.8689958840062822</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9287225708714446</v>
+        <v>0.9306474614265724</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>6271</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2548</v>
+        <v>2745</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12315</v>
+        <v>12336</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05535707930025636</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02248954406785727</v>
+        <v>0.02422807344203406</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1087098175292282</v>
+        <v>0.1088957023050011</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -906,19 +906,19 @@
         <v>18471</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10983</v>
+        <v>11627</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28341</v>
+        <v>27687</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06812507085820452</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04050836576786929</v>
+        <v>0.04288194757456215</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1045270105845911</v>
+        <v>0.1021173617915009</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -927,19 +927,19 @@
         <v>24742</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16866</v>
+        <v>16672</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37327</v>
+        <v>35773</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06436253448040222</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04387568065143887</v>
+        <v>0.04336892826179881</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09710211631210403</v>
+        <v>0.09305779872967521</v>
       </c>
     </row>
     <row r="7">
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5504</v>
+        <v>4919</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008554289707769501</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04859153890366234</v>
+        <v>0.04341946672337354</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6856</v>
+        <v>6608</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006981337255372819</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02528808975635119</v>
+        <v>0.02437123167002194</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -998,19 +998,19 @@
         <v>2862</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7692</v>
+        <v>7596</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007444862845582947</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002318478438314054</v>
+        <v>0.002311523095051173</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02001024079976927</v>
+        <v>0.01976036911713698</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>4538</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12715</v>
+        <v>13319</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01173540790071532</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002345516210517584</v>
+        <v>0.002333718557022135</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03288295417756384</v>
+        <v>0.03444381052729428</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1052,19 +1052,19 @@
         <v>6225</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2344</v>
+        <v>2308</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13319</v>
+        <v>13737</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01095311415455616</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004123551194683041</v>
+        <v>0.004060044979585365</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0234349721121443</v>
+        <v>0.02416956058515776</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -1073,19 +1073,19 @@
         <v>10763</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4721</v>
+        <v>4834</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19905</v>
+        <v>20813</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01126985680275999</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004942924376613463</v>
+        <v>0.00506137981111243</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0208424063956222</v>
+        <v>0.02179287354633281</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>360189</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>349051</v>
+        <v>347968</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>369207</v>
+        <v>368614</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9314941985598847</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9026882872401429</v>
+        <v>0.8998898124856132</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9548154697850411</v>
+        <v>0.9532818971247285</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>504</v>
@@ -1123,19 +1123,19 @@
         <v>525489</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>511454</v>
+        <v>511396</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>537015</v>
+        <v>536413</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9245961253441318</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.899901441150901</v>
+        <v>0.8997999893118073</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9448772244174622</v>
+        <v>0.9438172575198579</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>850</v>
@@ -1144,19 +1144,19 @@
         <v>885678</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>868349</v>
+        <v>865204</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>900924</v>
+        <v>899895</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9273890838569523</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9092437783662224</v>
+        <v>0.905951303850007</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9433536535470342</v>
+        <v>0.9422753802517447</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>21062</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13012</v>
+        <v>13052</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30841</v>
+        <v>32348</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0544691091544031</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03365174539250569</v>
+        <v>0.03375292109257354</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07975776059326008</v>
+        <v>0.08365661701360898</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -1194,19 +1194,19 @@
         <v>34701</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24648</v>
+        <v>25363</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46633</v>
+        <v>47375</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06105708862900874</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04336770687297922</v>
+        <v>0.04462588986393243</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0820506668553789</v>
+        <v>0.08335625047129698</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -1215,19 +1215,19 @@
         <v>55763</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42686</v>
+        <v>42744</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71566</v>
+        <v>72296</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05838968386533253</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04469632516980031</v>
+        <v>0.04475738558239097</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07493661488389002</v>
+        <v>0.07570075579899273</v>
       </c>
     </row>
     <row r="11">
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4461</v>
+        <v>5024</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002301284384996922</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01153728381527964</v>
+        <v>0.01299152845026997</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5991</v>
+        <v>6754</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003393671872303303</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01054156360978395</v>
+        <v>0.01188342597956464</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1286,19 +1286,19 @@
         <v>2819</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7604</v>
+        <v>8209</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002951375474955199</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0009206519557644138</v>
+        <v>0.0009183088529019991</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.00796209892837136</v>
+        <v>0.0085952108410037</v>
       </c>
     </row>
     <row r="12">
@@ -1319,19 +1319,19 @@
         <v>3636</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8304</v>
+        <v>9190</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02880111866079494</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.006937609346109225</v>
+        <v>0.007030457814714361</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06578106157031632</v>
+        <v>0.07280345481275449</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1340,19 +1340,19 @@
         <v>4154</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1024</v>
+        <v>1047</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9719</v>
+        <v>10600</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02497071948954056</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006155956397306225</v>
+        <v>0.006297165774780756</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05842905766052173</v>
+        <v>0.06372800648928938</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1361,19 +1361,19 @@
         <v>7789</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3640</v>
+        <v>3701</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14576</v>
+        <v>14192</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02662340754169163</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01244047728977885</v>
+        <v>0.01265071026661075</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04982088277236619</v>
+        <v>0.04850644020771343</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>98532</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87501</v>
+        <v>87807</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106470</v>
+        <v>106743</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7805450381966333</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6931619381755567</v>
+        <v>0.6955814709468864</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8434295710405717</v>
+        <v>0.8455930315062682</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -1411,19 +1411,19 @@
         <v>153140</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>145136</v>
+        <v>144875</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>159185</v>
+        <v>159152</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9206609339503168</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8725411861293851</v>
+        <v>0.8709746579520746</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.957004767370322</v>
+        <v>0.9568027513565276</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>238</v>
@@ -1432,19 +1432,19 @@
         <v>251671</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>239369</v>
+        <v>237420</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>263531</v>
+        <v>262132</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8602056507081987</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8181558975365913</v>
+        <v>0.8114949906133208</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9007409524492159</v>
+        <v>0.8959616076720733</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>24067</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16524</v>
+        <v>16780</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34540</v>
+        <v>34488</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1906538431425717</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1308984564317953</v>
+        <v>0.132924226681209</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2736186898947789</v>
+        <v>0.2732049133046828</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1482,19 +1482,19 @@
         <v>8028</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3819</v>
+        <v>3909</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14310</v>
+        <v>15054</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0482654784882952</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02295781128918749</v>
+        <v>0.02350205708622764</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0860301790957898</v>
+        <v>0.09050430277809406</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -1503,19 +1503,19 @@
         <v>32095</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21888</v>
+        <v>23045</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43021</v>
+        <v>45248</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1097012554160532</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07481329541152731</v>
+        <v>0.078767506059733</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1470463350802415</v>
+        <v>0.1546559366515824</v>
       </c>
     </row>
     <row r="15">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5146</v>
+        <v>5139</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.006102868071847452</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03093549027140427</v>
+        <v>0.03089240920454376</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4737</v>
+        <v>5745</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.003469686334056519</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01619136415038935</v>
+        <v>0.01963719938023377</v>
       </c>
     </row>
     <row r="16">
@@ -1599,19 +1599,19 @@
         <v>11056</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5320</v>
+        <v>5393</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20917</v>
+        <v>20480</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01765571628604829</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008495247021382969</v>
+        <v>0.008612073867771745</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03340353868922658</v>
+        <v>0.03270489087822527</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1620,19 +1620,19 @@
         <v>17725</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10203</v>
+        <v>10287</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28842</v>
+        <v>28951</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01762263439399746</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01014406286268207</v>
+        <v>0.01022745839017606</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02867513657975724</v>
+        <v>0.02878387025312814</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -1641,19 +1641,19 @@
         <v>28781</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18929</v>
+        <v>19157</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42768</v>
+        <v>42959</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0176353277792307</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.011598361441671</v>
+        <v>0.01173832180378101</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02620553226928697</v>
+        <v>0.0263228969908688</v>
       </c>
     </row>
     <row r="17">
@@ -1670,19 +1670,19 @@
         <v>561879</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>545427</v>
+        <v>545751</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>576993</v>
+        <v>577100</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8972924733567382</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8710199830183961</v>
+        <v>0.8715370712004039</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9214278025702569</v>
+        <v>0.9215998111948164</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>886</v>
@@ -1691,19 +1691,19 @@
         <v>922050</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>903559</v>
+        <v>903148</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>937460</v>
+        <v>938290</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9167216021701596</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8983379238570088</v>
+        <v>0.8979296298487783</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9320433876119304</v>
+        <v>0.932868487000294</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1426</v>
@@ -1712,19 +1712,19 @@
         <v>1483929</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1457708</v>
+        <v>1458908</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1507695</v>
+        <v>1505162</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9092667257563206</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8931998794229092</v>
+        <v>0.8939354388389453</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9238293545873003</v>
+        <v>0.9222774737741575</v>
       </c>
     </row>
     <row r="18">
@@ -1741,19 +1741,19 @@
         <v>51400</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38676</v>
+        <v>39075</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>65531</v>
+        <v>67823</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08208325448973298</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06176424516246202</v>
+        <v>0.06240109203997404</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1046491827477116</v>
+        <v>0.1083105060843207</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>60</v>
@@ -1762,19 +1762,19 @@
         <v>61201</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48165</v>
+        <v>47613</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>76852</v>
+        <v>76606</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06084694943572775</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04788630607533822</v>
+        <v>0.04733749628881735</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0764077292563486</v>
+        <v>0.07616288242905106</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>111</v>
@@ -1783,19 +1783,19 @@
         <v>112601</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>94037</v>
+        <v>93294</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>135653</v>
+        <v>134579</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06899523190297009</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05762032612183245</v>
+        <v>0.05716497346117174</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08312023278935055</v>
+        <v>0.08246241397212378</v>
       </c>
     </row>
     <row r="19">
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6508</v>
+        <v>6600</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002968555867480471</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01039314820472961</v>
+        <v>0.01053968890093346</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1833,19 +1833,19 @@
         <v>4837</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1772</v>
+        <v>1911</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9908</v>
+        <v>10670</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004808814000115176</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001761268741060632</v>
+        <v>0.001899991984689383</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.009851092737194212</v>
+        <v>0.01060847905840618</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1854,19 +1854,19 @@
         <v>6696</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2865</v>
+        <v>2885</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12845</v>
+        <v>13286</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004102714561478631</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001755438458592013</v>
+        <v>0.001767889432909527</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.007870836259469298</v>
+        <v>0.008140777059497591</v>
       </c>
     </row>
     <row r="20">
@@ -2126,19 +2126,19 @@
         <v>3990</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>994</v>
+        <v>1076</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9166</v>
+        <v>10336</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02203798156771908</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005488958594072882</v>
+        <v>0.005945030477462244</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05062304151019195</v>
+        <v>0.05708799299153231</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2147,19 +2147,19 @@
         <v>9076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4323</v>
+        <v>4350</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17328</v>
+        <v>18304</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02338030752975196</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01113653699572234</v>
+        <v>0.01120527902695561</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04463710781787003</v>
+        <v>0.04715123568249345</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -2168,19 +2168,19 @@
         <v>13066</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7068</v>
+        <v>6915</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22652</v>
+        <v>22106</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02295335964278115</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01241558090231375</v>
+        <v>0.01214835472270719</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03979231475197608</v>
+        <v>0.03883334998119667</v>
       </c>
     </row>
     <row r="5">
@@ -2197,19 +2197,19 @@
         <v>156276</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>144256</v>
+        <v>145733</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>164572</v>
+        <v>164957</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8631206525160496</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7967344539437172</v>
+        <v>0.8048913285007802</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9089390927321163</v>
+        <v>0.9110690434152804</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>321</v>
@@ -2218,19 +2218,19 @@
         <v>347731</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>334683</v>
+        <v>332970</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>358914</v>
+        <v>358080</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8957764062127656</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8621621584347926</v>
+        <v>0.8577495427729845</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9245831185845467</v>
+        <v>0.9224336422997687</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>469</v>
@@ -2239,19 +2239,19 @@
         <v>504007</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>485905</v>
+        <v>486983</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>518035</v>
+        <v>519149</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8853897300755198</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8535896373000557</v>
+        <v>0.8554826383277961</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9100331100815353</v>
+        <v>0.9119895256768876</v>
       </c>
     </row>
     <row r="6">
@@ -2268,19 +2268,19 @@
         <v>12525</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6719</v>
+        <v>6365</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22633</v>
+        <v>22225</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06917454085369994</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03710950024435205</v>
+        <v>0.03515510668195223</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1250057888073389</v>
+        <v>0.1227526801698173</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -2289,19 +2289,19 @@
         <v>20856</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13405</v>
+        <v>13286</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31129</v>
+        <v>31575</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05372727367149568</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03453257754439825</v>
+        <v>0.03422468242858458</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08018941602114452</v>
+        <v>0.08133847534701324</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -2310,19 +2310,19 @@
         <v>33381</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23272</v>
+        <v>22624</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>46535</v>
+        <v>46408</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05864051998383527</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04088160714533841</v>
+        <v>0.03974324440725626</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08174886426885451</v>
+        <v>0.08152563413110343</v>
       </c>
     </row>
     <row r="7">
@@ -2339,19 +2339,19 @@
         <v>8268</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3364</v>
+        <v>3282</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15091</v>
+        <v>14472</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04566682506253137</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01858167842416888</v>
+        <v>0.01812740763123912</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08334624560916934</v>
+        <v>0.07992707863802179</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -2360,19 +2360,19 @@
         <v>11603</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6323</v>
+        <v>6255</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20014</v>
+        <v>19952</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02988923016662211</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01628899593839531</v>
+        <v>0.01611351611142151</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05155638825023311</v>
+        <v>0.05139637936834662</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -2381,19 +2381,19 @@
         <v>19871</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12528</v>
+        <v>11674</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31091</v>
+        <v>30900</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03490754240435039</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02200863773376919</v>
+        <v>0.02050819499419842</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05461830715882822</v>
+        <v>0.05428195723035965</v>
       </c>
     </row>
     <row r="8">
@@ -2414,19 +2414,19 @@
         <v>3042</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8323</v>
+        <v>8172</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004866266279800092</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001502511925095432</v>
+        <v>0.001496205638246093</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01331686570848875</v>
+        <v>0.01307524634943021</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -2435,19 +2435,19 @@
         <v>9963</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4240</v>
+        <v>4910</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17834</v>
+        <v>18589</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01101083150990407</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004685515658228948</v>
+        <v>0.005426272221416632</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0197098213390895</v>
+        <v>0.02054369717448888</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -2456,19 +2456,19 @@
         <v>13005</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6946</v>
+        <v>7101</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21661</v>
+        <v>22899</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008500483633609876</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004540521293936785</v>
+        <v>0.004641844760370785</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01415861198934067</v>
+        <v>0.01496792980022615</v>
       </c>
     </row>
     <row r="9">
@@ -2485,19 +2485,19 @@
         <v>586117</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>573201</v>
+        <v>572018</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>596310</v>
+        <v>596481</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9377513563029062</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9170865088870581</v>
+        <v>0.9151930333420814</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9540598145356884</v>
+        <v>0.9543325754113521</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>784</v>
@@ -2506,19 +2506,19 @@
         <v>843574</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>826911</v>
+        <v>827105</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>858159</v>
+        <v>856120</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9322853760524263</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9138705527009653</v>
+        <v>0.9140846855315935</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9484038843345282</v>
+        <v>0.9461514248198809</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1341</v>
@@ -2527,19 +2527,19 @@
         <v>1429691</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1410232</v>
+        <v>1409832</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1448353</v>
+        <v>1446482</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9345184896088473</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9217989601029641</v>
+        <v>0.9215376752554889</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9467169609939559</v>
+        <v>0.9454942116834351</v>
       </c>
     </row>
     <row r="10">
@@ -2556,19 +2556,19 @@
         <v>29026</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20034</v>
+        <v>20234</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41040</v>
+        <v>40342</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04644034016998017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03205386781029265</v>
+        <v>0.03237266341875952</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06566200533352717</v>
+        <v>0.06454495660725658</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -2577,19 +2577,19 @@
         <v>45244</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33912</v>
+        <v>34151</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60673</v>
+        <v>59688</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05000152763851243</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03747797900389162</v>
+        <v>0.03774284951655447</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06705309423666234</v>
+        <v>0.06596441343631113</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -2598,19 +2598,19 @@
         <v>74270</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59210</v>
+        <v>59443</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91724</v>
+        <v>91072</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0485466127561841</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03870280612907104</v>
+        <v>0.0388548416873874</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05995525483642059</v>
+        <v>0.05952923918286816</v>
       </c>
     </row>
     <row r="11">
@@ -2627,19 +2627,19 @@
         <v>6839</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2937</v>
+        <v>3030</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13499</v>
+        <v>14287</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01094203724731358</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004699631809277231</v>
+        <v>0.004847408573663746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02159755604239378</v>
+        <v>0.02285864106232634</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -2648,19 +2648,19 @@
         <v>7061</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3041</v>
+        <v>2961</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13572</v>
+        <v>13522</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007803564193371645</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003361107602506434</v>
+        <v>0.003272349660243558</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01499925959185804</v>
+        <v>0.01494449591297613</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -2669,19 +2669,19 @@
         <v>13900</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7832</v>
+        <v>8013</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22530</v>
+        <v>22829</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009085780081840024</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005119530875373114</v>
+        <v>0.005237737273887986</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01472672085828217</v>
+        <v>0.01492239944243728</v>
       </c>
     </row>
     <row r="12">
@@ -2702,19 +2702,19 @@
         <v>9669</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4731</v>
+        <v>4780</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19751</v>
+        <v>19457</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05461523617040597</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02672132998870901</v>
+        <v>0.02699890726185899</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1115634539176214</v>
+        <v>0.1099067557667828</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -2723,19 +2723,19 @@
         <v>9580</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4025</v>
+        <v>4126</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18524</v>
+        <v>18039</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04279538646010963</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01798197530167707</v>
+        <v>0.01843036248298985</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08274678282351738</v>
+        <v>0.0805813989204355</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -2744,19 +2744,19 @@
         <v>19249</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11589</v>
+        <v>10685</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31683</v>
+        <v>31777</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04801500255074928</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02890670344251558</v>
+        <v>0.02665323609170103</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07903140945452557</v>
+        <v>0.07926571095849475</v>
       </c>
     </row>
     <row r="13">
@@ -2773,19 +2773,19 @@
         <v>156508</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>145687</v>
+        <v>144938</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>164540</v>
+        <v>164869</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8840513798474117</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8229300342530513</v>
+        <v>0.8186965187342181</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9294223828087014</v>
+        <v>0.9312814916294432</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>181</v>
@@ -2794,19 +2794,19 @@
         <v>198809</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>187483</v>
+        <v>187523</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>208421</v>
+        <v>207032</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8880856968791865</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8374929479327295</v>
+        <v>0.8376705013760397</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9310252444794744</v>
+        <v>0.9248196621372647</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>324</v>
@@ -2815,19 +2815,19 @@
         <v>355317</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>341349</v>
+        <v>338904</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>367204</v>
+        <v>367622</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8863041525609495</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8514622429789548</v>
+        <v>0.8453646327734253</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.91595477647568</v>
+        <v>0.9169979897159884</v>
       </c>
     </row>
     <row r="14">
@@ -2844,19 +2844,19 @@
         <v>9724</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4835</v>
+        <v>4793</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18835</v>
+        <v>18804</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05492977725862102</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02731019826505108</v>
+        <v>0.02707338496857842</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1063927067654923</v>
+        <v>0.1062145122672956</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -2865,19 +2865,19 @@
         <v>14462</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7696</v>
+        <v>7839</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23596</v>
+        <v>22708</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06460313957211965</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03438044434239564</v>
+        <v>0.03501703090662562</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1054021741927853</v>
+        <v>0.1014369192490702</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -2886,19 +2886,19 @@
         <v>24187</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15762</v>
+        <v>15399</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35486</v>
+        <v>35645</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06033140695117596</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03931569196395835</v>
+        <v>0.03841104979093064</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08851625114056</v>
+        <v>0.0889141876194169</v>
       </c>
     </row>
     <row r="15">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5700</v>
+        <v>6303</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.006403606723561344</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0321994127200536</v>
+        <v>0.0356054035922389</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5050</v>
+        <v>5440</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.004515777088584294</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02255978115771269</v>
+        <v>0.0243021903900471</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7448</v>
+        <v>8689</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.005349437937125281</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01857756120120085</v>
+        <v>0.02167507062994212</v>
       </c>
     </row>
     <row r="16">
@@ -2990,19 +2990,19 @@
         <v>16701</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9465</v>
+        <v>9617</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28013</v>
+        <v>27467</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01698730017434179</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00962786974783097</v>
+        <v>0.009782637563137441</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02849393682769996</v>
+        <v>0.02793900157049446</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -3011,19 +3011,19 @@
         <v>28619</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19322</v>
+        <v>18823</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44270</v>
+        <v>40542</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01886704668329083</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01273817289822906</v>
+        <v>0.0124087449516218</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02918461469402468</v>
+        <v>0.02672692800416068</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -3032,19 +3032,19 @@
         <v>45320</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32126</v>
+        <v>32306</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60856</v>
+        <v>62837</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01812784594519091</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0128503073553225</v>
+        <v>0.0129221641191744</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02434221155927378</v>
+        <v>0.02513468358174062</v>
       </c>
     </row>
     <row r="17">
@@ -3061,19 +3061,19 @@
         <v>898901</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>878668</v>
+        <v>878175</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>915480</v>
+        <v>915342</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9143367560656982</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8937561289984444</v>
+        <v>0.8932552473715764</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9312007338271933</v>
+        <v>0.9310601158226457</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1286</v>
@@ -3082,19 +3082,19 @@
         <v>1390114</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1366203</v>
+        <v>1367235</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1409554</v>
+        <v>1411652</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9164193912481641</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9006565311358972</v>
+        <v>0.9013368152973624</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9292349408907533</v>
+        <v>0.9306179494005015</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2134</v>
@@ -3103,19 +3103,19 @@
         <v>2289015</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2257622</v>
+        <v>2259870</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2316371</v>
+        <v>2316535</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9156004055728389</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9030431913842114</v>
+        <v>0.9039427645897948</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9265428848245858</v>
+        <v>0.9266086084127526</v>
       </c>
     </row>
     <row r="18">
@@ -3132,19 +3132,19 @@
         <v>51275</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38267</v>
+        <v>39313</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>67683</v>
+        <v>67325</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05215598250985532</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03892460271334927</v>
+        <v>0.03998811677281883</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06884504772578477</v>
+        <v>0.06848158854496215</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>78</v>
@@ -3153,19 +3153,19 @@
         <v>80562</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>64478</v>
+        <v>62784</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>101029</v>
+        <v>98187</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05310987740647508</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04250676692261318</v>
+        <v>0.04138943215534679</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06660233001372862</v>
+        <v>0.06472876826167703</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>128</v>
@@ -3174,19 +3174,19 @@
         <v>131838</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>110845</v>
+        <v>110304</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>155577</v>
+        <v>155795</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05273476309808607</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04433772305190644</v>
+        <v>0.04412146022726987</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06223029175708705</v>
+        <v>0.06231775172636902</v>
       </c>
     </row>
     <row r="19">
@@ -3203,19 +3203,19 @@
         <v>16241</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9896</v>
+        <v>9424</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27129</v>
+        <v>25362</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01651996125010465</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01006581957041537</v>
+        <v>0.009586198381612589</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02759515451775111</v>
+        <v>0.02579702783630115</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -3224,19 +3224,19 @@
         <v>19675</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12175</v>
+        <v>12007</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30540</v>
+        <v>29967</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01297031741754995</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008026581859252769</v>
+        <v>0.007915360548296838</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02013321940018996</v>
+        <v>0.01975548935035923</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -3245,19 +3245,19 @@
         <v>35916</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24882</v>
+        <v>24860</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48294</v>
+        <v>49585</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0143661967707098</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009952782837934222</v>
+        <v>0.009944069697289852</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01931740076286145</v>
+        <v>0.01983398140287611</v>
       </c>
     </row>
     <row r="20">
@@ -3517,19 +3517,19 @@
         <v>2760</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>542</v>
+        <v>814</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7352</v>
+        <v>8712</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.021635453106383</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004246409155465751</v>
+        <v>0.006384268733942982</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05763566879767517</v>
+        <v>0.06829888806748934</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -3538,19 +3538,19 @@
         <v>4865</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1264</v>
+        <v>1273</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11154</v>
+        <v>12004</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.024576919357503</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006386216997495583</v>
+        <v>0.006430727744421999</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05635015733222849</v>
+        <v>0.06064671150976174</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3559,19 +3559,19 @@
         <v>7624</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3232</v>
+        <v>3360</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14476</v>
+        <v>15090</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02342421544885154</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009928689982508196</v>
+        <v>0.01032440773738241</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04447418541652429</v>
+        <v>0.04636179882363883</v>
       </c>
     </row>
     <row r="5">
@@ -3588,19 +3588,19 @@
         <v>110518</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>101585</v>
+        <v>100403</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>117414</v>
+        <v>116603</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8664578914066298</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7964174200385146</v>
+        <v>0.7871513243995616</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9205185466016381</v>
+        <v>0.9141606137789121</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>168</v>
@@ -3609,19 +3609,19 @@
         <v>177376</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>167427</v>
+        <v>166906</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>185547</v>
+        <v>184998</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8961350668005416</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.845872116445625</v>
+        <v>0.8432419944766866</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9374184234389913</v>
+        <v>0.9346431716262142</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>275</v>
@@ -3630,19 +3630,19 @@
         <v>287894</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>275545</v>
+        <v>275561</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>298089</v>
+        <v>299075</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8845051539768704</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8465653662615583</v>
+        <v>0.8466140033051569</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9158274514788347</v>
+        <v>0.918858220535623</v>
       </c>
     </row>
     <row r="6">
@@ -3659,19 +3659,19 @@
         <v>8973</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4093</v>
+        <v>4017</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16249</v>
+        <v>16120</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07034699094057278</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03208821756181536</v>
+        <v>0.03149396668691491</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1273894349339312</v>
+        <v>0.1263818234017426</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -3680,19 +3680,19 @@
         <v>14739</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8051</v>
+        <v>8052</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23652</v>
+        <v>23609</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07446640620836412</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04067704323418943</v>
+        <v>0.04067967891402646</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1194936736443975</v>
+        <v>0.1192774113928531</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -3701,19 +3701,19 @@
         <v>23712</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15168</v>
+        <v>15475</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34352</v>
+        <v>35098</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07285208679241519</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04660052199886833</v>
+        <v>0.04754322070585688</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1055395601181635</v>
+        <v>0.1078330383480462</v>
       </c>
     </row>
     <row r="7">
@@ -3730,19 +3730,19 @@
         <v>5301</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2040</v>
+        <v>2010</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12130</v>
+        <v>12299</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04155966454641444</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01599539489648488</v>
+        <v>0.0157572874725739</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09509770933622759</v>
+        <v>0.09642147477896676</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6288</v>
+        <v>6161</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004821607633591332</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0317668739035949</v>
+        <v>0.03112892954807377</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -3772,19 +3772,19 @@
         <v>6255</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2719</v>
+        <v>2289</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14528</v>
+        <v>13476</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01921854378186297</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008355075015336668</v>
+        <v>0.007032738316816885</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04463390356442059</v>
+        <v>0.04140297064898125</v>
       </c>
     </row>
     <row r="8">
@@ -3805,19 +3805,19 @@
         <v>11682</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6220</v>
+        <v>6353</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20788</v>
+        <v>21214</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02433217006397304</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01295638407972927</v>
+        <v>0.01323303659911228</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04329832726993777</v>
+        <v>0.04418696792262531</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -3826,19 +3826,19 @@
         <v>7145</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3000</v>
+        <v>3018</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14423</v>
+        <v>14115</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01024428762965224</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004300765749556029</v>
+        <v>0.004327317721424934</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0206804313322045</v>
+        <v>0.02023800624254969</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -3847,19 +3847,19 @@
         <v>18827</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11397</v>
+        <v>11664</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>29764</v>
+        <v>29858</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01598815915940413</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009678998324902746</v>
+        <v>0.009905574429015929</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02527629737155592</v>
+        <v>0.02535632240610013</v>
       </c>
     </row>
     <row r="9">
@@ -3876,19 +3876,19 @@
         <v>445502</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>432202</v>
+        <v>431219</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>455838</v>
+        <v>455038</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9279271595496204</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9002257850339489</v>
+        <v>0.8981779667355446</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9494569256477235</v>
+        <v>0.947789940405075</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>612</v>
@@ -3897,19 +3897,19 @@
         <v>619226</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>602297</v>
+        <v>600114</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>634505</v>
+        <v>633853</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8878576251564911</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.863585222728269</v>
+        <v>0.8604551277988086</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9097654063416922</v>
+        <v>0.9088306059805099</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1034</v>
@@ -3918,19 +3918,19 @@
         <v>1064727</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1042997</v>
+        <v>1043054</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1085492</v>
+        <v>1083901</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9041946622437974</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8857406895254929</v>
+        <v>0.8857888554299966</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9218284130342886</v>
+        <v>0.9204775135162251</v>
       </c>
     </row>
     <row r="10">
@@ -3947,19 +3947,19 @@
         <v>19918</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12456</v>
+        <v>12377</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29740</v>
+        <v>30375</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04148673216113199</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02594337817106287</v>
+        <v>0.02577948712775843</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06194426258428104</v>
+        <v>0.06326820572044993</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -3968,19 +3968,19 @@
         <v>62506</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48648</v>
+        <v>49588</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79153</v>
+        <v>78761</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08962265768042836</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06975204640288725</v>
+        <v>0.07110084944140077</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1134914707077079</v>
+        <v>0.1129283731910498</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -3989,19 +3989,19 @@
         <v>82424</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>65737</v>
+        <v>66734</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101778</v>
+        <v>103270</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0699968144468868</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05582530215515774</v>
+        <v>0.05667206407155139</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08643287085831641</v>
+        <v>0.08769993952851035</v>
       </c>
     </row>
     <row r="11">
@@ -4018,19 +4018,19 @@
         <v>5139</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11488</v>
+        <v>11147</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01070292090402788</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004131243250555678</v>
+        <v>0.0041175907405015</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02392918395307023</v>
+        <v>0.02321757053104672</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -4039,19 +4039,19 @@
         <v>9581</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4803</v>
+        <v>4385</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18814</v>
+        <v>17722</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0137376563041774</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006886218825266937</v>
+        <v>0.006287608096909562</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0269754373461176</v>
+        <v>0.02540972599262697</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -4060,19 +4060,19 @@
         <v>14720</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8273</v>
+        <v>8446</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22943</v>
+        <v>25136</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01250034258108844</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007025517478150267</v>
+        <v>0.007172572780753237</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01948380953509941</v>
+        <v>0.02134643092034627</v>
       </c>
     </row>
     <row r="12">
@@ -4093,19 +4093,19 @@
         <v>3177</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8660</v>
+        <v>8661</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02198190135318451</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.006931899292106835</v>
+        <v>0.00687032824697177</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05992719163181426</v>
+        <v>0.0599333291700053</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -4114,19 +4114,19 @@
         <v>10530</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5584</v>
+        <v>5042</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18465</v>
+        <v>18718</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04930275485448468</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02614634020945672</v>
+        <v>0.0236078421625359</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08646024009005028</v>
+        <v>0.08764271688451387</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -4135,19 +4135,19 @@
         <v>13706</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7891</v>
+        <v>7587</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22876</v>
+        <v>22639</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03827683843003108</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0220371546093097</v>
+        <v>0.02118815679909187</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06388425476867934</v>
+        <v>0.06322177301036008</v>
       </c>
     </row>
     <row r="13">
@@ -4164,19 +4164,19 @@
         <v>131131</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>122734</v>
+        <v>122923</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>137454</v>
+        <v>136815</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9074056905376333</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8493017388847892</v>
+        <v>0.8506083187585477</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9511570353373866</v>
+        <v>0.9467394881660456</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>170</v>
@@ -4185,19 +4185,19 @@
         <v>175640</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>163338</v>
+        <v>163441</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>186116</v>
+        <v>185994</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8223972655683038</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7647929543222969</v>
+        <v>0.7652773881483905</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8714472104770725</v>
+        <v>0.8708765486999203</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>289</v>
@@ -4206,19 +4206,19 @@
         <v>306772</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>291791</v>
+        <v>292836</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>318863</v>
+        <v>320347</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8567042387762109</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8148662476376189</v>
+        <v>0.8177847985649903</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8904691433976085</v>
+        <v>0.8946148029533111</v>
       </c>
     </row>
     <row r="14">
@@ -4235,19 +4235,19 @@
         <v>10204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4894</v>
+        <v>5063</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17371</v>
+        <v>17602</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07061240810918222</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03386774555652171</v>
+        <v>0.03503610047043856</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1202023128578164</v>
+        <v>0.1218039360514637</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -4256,19 +4256,19 @@
         <v>27401</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18335</v>
+        <v>18769</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39404</v>
+        <v>39701</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1282999795772115</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08585023863541319</v>
+        <v>0.08788247242499447</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1844999788448116</v>
+        <v>0.1858934538599153</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -4277,19 +4277,19 @@
         <v>37606</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26486</v>
+        <v>27109</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>52138</v>
+        <v>49898</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1050189227937579</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07396509909863261</v>
+        <v>0.07570547463206966</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1456013126445529</v>
+        <v>0.1393470293730247</v>
       </c>
     </row>
     <row r="15">
@@ -4357,19 +4357,19 @@
         <v>17618</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10302</v>
+        <v>10282</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27586</v>
+        <v>27475</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02342331195930136</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01369624060753602</v>
+        <v>0.01366937531907913</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03667556705030262</v>
+        <v>0.03652750593445751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -4378,19 +4378,19 @@
         <v>22539</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14223</v>
+        <v>13964</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33787</v>
+        <v>33782</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02032477856856954</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01282536799636927</v>
+        <v>0.01259251139618463</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03046767439188252</v>
+        <v>0.030463124483644</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -4399,19 +4399,19 @@
         <v>40157</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28757</v>
+        <v>29146</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54327</v>
+        <v>53539</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0215770505665571</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01545126438456704</v>
+        <v>0.0156605701797663</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02919037281675346</v>
+        <v>0.02876744588981549</v>
       </c>
     </row>
     <row r="17">
@@ -4428,19 +4428,19 @@
         <v>687151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>671382</v>
+        <v>671278</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>701862</v>
+        <v>701761</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9135605287560542</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.892595946311195</v>
+        <v>0.8924574854857967</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9331188072319413</v>
+        <v>0.9329841038764023</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>950</v>
@@ -4449,19 +4449,19 @@
         <v>972242</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>948305</v>
+        <v>948190</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>993190</v>
+        <v>993875</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8767280470790514</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8551426721316193</v>
+        <v>0.855038962951269</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8956175494140323</v>
+        <v>0.8962356298962253</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1598</v>
@@ -4470,19 +4470,19 @@
         <v>1659393</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1632849</v>
+        <v>1632570</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1686032</v>
+        <v>1684831</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8916138913169949</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8773514613798115</v>
+        <v>0.8772016169011621</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9059273678102945</v>
+        <v>0.905281969002143</v>
       </c>
     </row>
     <row r="18">
@@ -4499,19 +4499,19 @@
         <v>39095</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28659</v>
+        <v>27615</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>51958</v>
+        <v>51760</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05197667373456188</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03810181813967879</v>
+        <v>0.03671341718421733</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06907739629545252</v>
+        <v>0.06881399218935762</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>100</v>
@@ -4520,19 +4520,19 @@
         <v>104647</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>85881</v>
+        <v>87171</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>125663</v>
+        <v>127349</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09436629673386158</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0774435120452262</v>
+        <v>0.07860735654650577</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1133175723529391</v>
+        <v>0.1148383165559809</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>139</v>
@@ -4541,19 +4541,19 @@
         <v>143742</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>121260</v>
+        <v>121879</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>168510</v>
+        <v>167791</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07723453431811587</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06515467072316593</v>
+        <v>0.06548711603389805</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09054244887647553</v>
+        <v>0.09015623929754045</v>
       </c>
     </row>
     <row r="19">
@@ -4570,19 +4570,19 @@
         <v>10440</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5144</v>
+        <v>5874</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18086</v>
+        <v>18959</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0138792416044762</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006838295580907805</v>
+        <v>0.00780980321969266</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02404485147468046</v>
+        <v>0.0252054395957944</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -4591,19 +4591,19 @@
         <v>10536</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5176</v>
+        <v>5243</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18507</v>
+        <v>18941</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009500502422585428</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004667646423879835</v>
+        <v>0.004728189662601835</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0166891262728694</v>
+        <v>0.01707994619625266</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -4612,19 +4612,19 @@
         <v>20975</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13355</v>
+        <v>13107</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32135</v>
+        <v>32750</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01127016947873992</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007176021730448496</v>
+        <v>0.007042362114730886</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0172668275271574</v>
+        <v>0.01759696723488708</v>
       </c>
     </row>
     <row r="20">
